--- a/biology/Botanique/Liste_des_arboretums_de_France/Liste_des_arboretums_de_France.xlsx
+++ b/biology/Botanique/Liste_des_arboretums_de_France/Liste_des_arboretums_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des arboretums de France présente les arboretums présents sur le territoire français, classés par ordre des numéros de départements.
 </t>
@@ -511,7 +523,9 @@
           <t>Ain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arboretum de Beynost, Beynost
 Arboretum de Châtillon sur Chalaronne, Châtillon-sur-Chalaronne
@@ -544,10 +558,12 @@
           <t>Aisne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Arboretum des jardins du nouveau monde du château de Blérancourt, Blérancourt[1]
-Arboretum de Craonne[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arboretum des jardins du nouveau monde du château de Blérancourt, Blérancourt
+Arboretum de Craonne
 Arboretum du Parc des Champs-Élysées de Saint-Quentin</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Allier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arboretum de Balaine, Villeneuve-sur-Allier
 Arboretum du Prieuré de Gros Bois, Gipcy</t>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,7 +653,9 @@
           <t>Alpes-Maritimes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arboretum Marcel Kroenlein, Roure
 Arboretum du Sarroudier, Le Mas
@@ -665,7 +687,9 @@
           <t>Ardèche</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Arboretum de Berzème, Berzème
 Arboretum de Coucouron, Coucouron
@@ -697,7 +721,9 @@
           <t>Ardennes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Arboretum de la Pipe qui fume, Bogny-sur-Meuse
 Arboretum Victor-Cayasse, Guignicourt-sur-Vence
@@ -732,6 +758,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -757,7 +785,9 @@
           <t>Aube</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Arboretum de Brienne-le-Château, Brienne-le-Château
 Arboretum Saint-Antoine, Ervy-le-Châtel
@@ -789,7 +819,9 @@
           <t>Aude</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Arboretum du Planal, Arques
 Arboretum de Villardebelle, Villardebelle
@@ -821,7 +853,9 @@
           <t>Aveyron</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Arboretum de Labarthe, Brommat
 Arboretum Roger Caville (Parc de Vabre)</t>
@@ -852,7 +886,9 @@
           <t>Bas-Rhin</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Arboretum d'Erstein
 Arboretum du Windeck, Ottrott</t>
@@ -884,6 +920,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -909,7 +947,9 @@
           <t>Calvados</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Arboretums de la forêt de Grimbosq</t>
         </is>
@@ -939,7 +979,9 @@
           <t>Cantal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Arboretum Sainte Anastasie, Sainte-Anastasie
 Arboretum La Plantelière, Arpajon-sur-Cère</t>
@@ -970,7 +1012,9 @@
           <t>Charente</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Arboretum du Chêne-Vert, Chabanais
 Arboretum Jean Aubouin, Combiers</t>
@@ -1001,7 +1045,9 @@
           <t>Charente-Maritime</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Arboretum Sentier des Sens, Saint-Georges-des-Agoûts</t>
         </is>
@@ -1032,6 +1078,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1057,14 +1105,16 @@
           <t>Corrèze</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Arboretum d'Al Gaulhia, Espartignac
 Arboretum de Lachaud, aussi dénommé arboretum des Agriers, Couffy-sur-Sarsonne
 Arboretum d'Egletons, Egletons
 Arboretum du château de Neuvic d'Ussel, Neuvic
 Arboretum du Puy Chabrol, Pérols-sur-Vézère
-Arboretum de St-Pardoux-le-Vieux[3]
+Arboretum de St-Pardoux-le-Vieux
 Parc Arboretum de Saint-Setiers, Saint-Setiers
 Arboretum du château de la Diège, Ussel</t>
         </is>
@@ -1094,7 +1144,9 @@
           <t>Corse-du-Sud</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Arboretum des Milelli, Ajaccio</t>
         </is>
@@ -1124,7 +1176,9 @@
           <t>Côte-d'Or</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Arboretum de Longvic, Longvic
 Arboretum de la Tuilerie, Soirans</t>
@@ -1155,10 +1209,12 @@
           <t>Creuse</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Arboretum du Puy de Jaule, La Courtine-le-Trucq
-Arboretum de la Sedelle, Crozant[4].
+Arboretum de la Sedelle, Crozant.
 Arboretum du Lys, Chez la Vergeade, Champagnat</t>
         </is>
       </c>
@@ -1187,11 +1243,13 @@
           <t>Deux-Sèvres</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Arboretum du Chemin de la Découverte, Melle[5].
-Arboretum forestier départemental, Melle[6].
-Arboretum de la Croix verte, Beaulieu-sous-Bressuire[7].</t>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Arboretum du Chemin de la Découverte, Melle.
+Arboretum forestier départemental, Melle.
+Arboretum de la Croix verte, Beaulieu-sous-Bressuire.</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1277,9 @@
           <t>Dordogne</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Arboretum de Podestat, Bergerac</t>
         </is>
@@ -1250,6 +1310,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1275,9 +1337,11 @@
           <t>Drôme</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Arboretum D.LANTHELME, La Bâtie-Rolland[8].</t>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Arboretum D.LANTHELME, La Bâtie-Rolland.</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1369,9 @@
           <t>Essonne</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Arboretum de Segrez, Saint-Sulpice-de-Favières
 Arboretum Vilmorin (privé), Verrières-le-Buisson
@@ -1337,7 +1403,9 @@
           <t>Eure</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Arboretum d'Harcourt, Harcourt
 Arboretum des Bordins, Lyons-la-Forêt
@@ -1369,7 +1437,9 @@
           <t>Eure-et-Loir</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Arboretum d'Abondant, Abondant ;
 Jardin d'horticulture de Chartres.</t>
@@ -1400,7 +1470,9 @@
           <t>Finistère</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Arboretum du Poerop, Huelgoat
 Arboretum du Cranou, Saint-Eloy</t>
@@ -1431,7 +1503,9 @@
           <t>Gard</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Arboretum de la Foux, Lanuejols
 Arboretum de l'Hort de Dieu, Valleraugue
@@ -1465,7 +1539,9 @@
           <t>Gers</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Jardins de Coursiana, La Romieu</t>
         </is>
@@ -1495,7 +1571,9 @@
           <t>Gironde</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Arboretum de Toussaint Catros, Le Haillan</t>
         </is>
@@ -1526,6 +1604,8 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1551,7 +1631,9 @@
           <t>Hérault</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Arboretum du Grenouillet, Gorniès
 Arboretum du figuier, Nézignan-l'Évêque</t>
@@ -1582,7 +1664,9 @@
           <t>Haute-Garonne</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Arboretum de Jouéou, Bagnères-de-Luchon
 Arboretum de Cardeilhac, Cardeilhac</t>
@@ -1613,7 +1697,9 @@
           <t>Ille-et-Vilaine</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Arboretum Jean Huchet, Sud de Vitré</t>
         </is>
@@ -1643,7 +1729,9 @@
           <t>Indre-et-Loire</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Arboretum de Genillé</t>
         </is>
@@ -1673,7 +1761,9 @@
           <t>Isère</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Arboretum Robert Ruffier-Lanche, campus de Grenoble-Saint-Martin-d'Hères</t>
         </is>
@@ -1703,7 +1793,9 @@
           <t>Jura</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Arboretum de Cheveuil, Supt</t>
         </is>
@@ -1733,7 +1825,9 @@
           <t>Loir-et-Cher</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Arboretum de la Fosse, Fontaine-les-Coteaux</t>
         </is>
@@ -1763,7 +1857,9 @@
           <t>Loire</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Arboretum des Grands-Murcins, Roanne
 Arboretum forestier de Dentillon, Roisey
@@ -1795,7 +1891,9 @@
           <t>Loire-Atlantique</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Arboretum du Cimetière parc, Nantes</t>
         </is>
@@ -1825,7 +1923,9 @@
           <t>Loiret</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Arboretum national des Barres, Nogent-sur-Vernisson
 Arboretum des prés des Culands, Meung-sur-Loire
@@ -1858,7 +1958,9 @@
           <t>Lozère</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Arboretum Curie (ou Arboretum du Col des Trois Sœurs), La Panouse
 Arboretum de Born, Le Born
@@ -1890,7 +1992,9 @@
           <t>Maine-et-Loire</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Arboretum Gaston-Allard, Angers</t>
         </is>
@@ -1920,7 +2024,9 @@
           <t>Haute-Marne</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Arboretum de Montmorency, Bourbonne-les-Bains
 Arboretum de Brienne-le-Château</t>
@@ -1951,7 +2057,9 @@
           <t>Meurthe-et-Moselle</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t>Arboretum d'Amance, Champenoux
 Arboretum de l'Abiétinée, Malzéville</t>
@@ -1982,7 +2090,9 @@
           <t>Morbihan</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Arboretum de Camors à Camors.
 Arboretum du Château de Kerguéhennec à Bignan.
@@ -2014,14 +2124,16 @@
           <t>Moselle</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Arboretum du Brunnenthal, Phalsbourg
 Arboretum de Creutzwald, Creutzwald
 Arboretum de Hoste-Bas, Hoste, propriété privée ouverte au public
 Arboretum de Laquenexy, Laquenexy
 Arboretum du col de Lessy, Plappeville
-Arboretum de L'Hôpital, L'Hôpital (Moselle), situé dans la forêt de Zang et géré par l'association protectrice des oiseaux et de la nature (A.P.O.N.)[9]
+Arboretum de L'Hôpital, L'Hôpital (Moselle), situé dans la forêt de Zang et géré par l'association protectrice des oiseaux et de la nature (A.P.O.N.)
 Arboretum et jardin botanique de Montigny-lès-Metz, Montigny-lès-Metz
 Arboretum de la forêt d'Oderfang, Saint-Avold
 Arboretum de Rodemack, Rodemack
@@ -2056,7 +2168,9 @@
           <t>Nièvre</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Arboretum des feuilles fleuries, Saint-Éloi</t>
         </is>
@@ -2086,7 +2200,9 @@
           <t>Nord</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Arboretum du Manoir aux Loups, Halluin
 Arboretum du Quesnoy</t>
@@ -2117,7 +2233,9 @@
           <t>Oise</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Arboretum de Lieuvillers</t>
         </is>
@@ -2147,7 +2265,9 @@
           <t>Orne</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Arboretum de l'Étoile des Andaines, Champsecret
 Arboretum Koutiala, Alençon
@@ -2179,7 +2299,9 @@
           <t>Pas-de-Calais</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Arboretum de Boulogne, Boulogne-sur-Mer</t>
         </is>
@@ -2209,7 +2331,9 @@
           <t>Puy-de-Dôme</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Arboretum de Royat, Royat
 Arboretum du parc thermal de Châteauneuf-les-Bains</t>
@@ -2240,7 +2364,9 @@
           <t>Hautes-Pyrénées</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Arboretum de Tournay, Tournay
 Arboretum d'Arrens, Arrens-Marsous</t>
@@ -2271,7 +2397,9 @@
           <t>Pyrénées-Atlantiques</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Arboretum de Payssas à Lasseube</t>
         </is>
@@ -2301,7 +2429,9 @@
           <t>Pyrénées-Orientales</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Village-arboretum de Vernet-les-Bains
 Arboretum de Font-Romeu, Font-Romeu
@@ -2335,7 +2465,9 @@
           <t>Haut-Rhin</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve">Arboretum de Roderen, Roderen
 Arboretum de Reiningue, Reiningue
@@ -2369,7 +2501,9 @@
           <t>Saône-et-Loire</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Arboretum de Pézanin, Dompierre-les-Ormes</t>
         </is>
@@ -2399,7 +2533,9 @@
           <t>Sarthe</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Arboretum de la Grand Prée, Le Mans
 Arboretum des Quintes (en), Laigné-en-Belin
@@ -2433,7 +2569,9 @@
           <t>Haute-Savoie</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>Arboretum de Ripaille, Thonon-les-Bains</t>
         </is>
@@ -2463,7 +2601,9 @@
           <t>Paris</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Arboretum de l'école du Breuil, Paris (Bois de Vincennes)</t>
         </is>
@@ -2493,7 +2633,9 @@
           <t>Seine-Maritime</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Arboretum de Basse-Seine, Rouen
 Arboretum de Roumare, Rouen
@@ -2527,7 +2669,9 @@
           <t>Seine-et-Marne</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Arboretum du Val des Dames, Gretz-Armainvilliers
 Arboretum des Huit Routes, forêt de Villefermoy, Fontenailles</t>
@@ -2558,7 +2702,9 @@
           <t>Yvelines</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Arboretum de Versailles-Chèvreloup, Rocquencourt
 Arboretum de Grignon, Thiverval-Grignon</t>
@@ -2589,11 +2735,13 @@
           <t>Somme</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Arboretum du Jardin public d'Albert à Albert
-Arboretum du Parc du château de Rambures à Rambures[10].
-Arboretum du Parc de Samara à La Chaussée-Tirancourt[10].</t>
+Arboretum du Parc du château de Rambures à Rambures.
+Arboretum du Parc de Samara à La Chaussée-Tirancourt.</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2769,9 @@
           <t>Tarn</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t>Arboretum de Calmels, dans le parc du château de Calmels à Lacaune</t>
         </is>
@@ -2651,7 +2801,9 @@
           <t>Tarn-et-Garonne</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t>Arboretum du Jardin des Plantes, à Montauban</t>
         </is>
@@ -2681,7 +2833,9 @@
           <t>Var</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t>Arboretum André-Luglia, Pierrefeu-du-Var
 Arboretum de Gratteloup, Bormes-les-Mimosas
@@ -2717,7 +2871,9 @@
           <t>Vaucluse</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t>Arboretum du Font de l'Orme, Mérindol
 Arboretum de Saint Lambert, Lioux
@@ -2749,7 +2905,9 @@
           <t>Vendée</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>Arboretum de Saint-Avaugourd-des-Landes, Moutiers-les-Mauxfaits
 Arboretum du Puy du fou, Les Épesses</t>
@@ -2780,7 +2938,9 @@
           <t>Vienne</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t>Arboretum de Neuville-de-Poitou, Neuville-de-Poitou</t>
         </is>
@@ -2810,7 +2970,9 @@
           <t>Haute-Vienne</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Arboretum de la Jonchère, La Jonchère-Saint-Maurice</t>
         </is>
@@ -2840,7 +3002,9 @@
           <t>Vosges</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Arboretum de la Hutte, Claudon
 Arboretum de la forêt d'Épinal, Épinal
@@ -2872,7 +3036,9 @@
           <t>Territoire de Belfort</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Jardin des cinq sens, Belfort</t>
         </is>
@@ -2902,7 +3068,9 @@
           <t>Hauts-de-Seine</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Arboretum de la Vallée-aux-Loups, Châtenay-Malabry</t>
         </is>
@@ -2932,7 +3100,9 @@
           <t>Seine-Saint-Denis</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Arboretum du Bois de l'Étoile, Gagny
 Arboretum de Montfermeil</t>
@@ -2963,7 +3133,9 @@
           <t>Val-d'Oise</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
         <is>
           <t>Arboretum de La Roche-Guyon, La Roche-Guyon</t>
         </is>
@@ -2993,7 +3165,9 @@
           <t>Martinique</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Arboretum de la Donis, Fort-de-France</t>
         </is>
